--- a/Team-Data/2014-15/3-2-2014-15.xlsx
+++ b/Team-Data/2014-15/3-2-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>6.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
@@ -783,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -992,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -1030,43 +1097,43 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
         <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.431</v>
+        <v>0.421</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J4" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M4" t="n">
         <v>20.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.325</v>
+        <v>0.322</v>
       </c>
       <c r="O4" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q4" t="n">
         <v>0.746</v>
@@ -1075,7 +1142,7 @@
         <v>10.1</v>
       </c>
       <c r="S4" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T4" t="n">
         <v>42.2</v>
@@ -1090,40 +1157,40 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE4" t="n">
         <v>19</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
@@ -1135,10 +1202,10 @@
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
         <v>23</v>
@@ -1153,7 +1220,7 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT4" t="n">
         <v>23</v>
@@ -1174,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
         <v>18</v>
@@ -1183,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>4</v>
@@ -1341,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1487,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
@@ -1514,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1535,13 +1602,13 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -1657,31 +1724,31 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
       </c>
       <c r="AM7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
         <v>12</v>
@@ -1690,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>18</v>
@@ -1699,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>61</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0.656</v>
+        <v>0.639</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,40 +1843,40 @@
         <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K8" t="n">
         <v>0.462</v>
       </c>
       <c r="L8" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="N8" t="n">
         <v>0.353</v>
       </c>
       <c r="O8" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R8" t="n">
         <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
         <v>12.7</v>
@@ -1824,7 +1891,7 @@
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA8" t="n">
         <v>21.7</v>
@@ -1833,19 +1900,19 @@
         <v>105.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>14</v>
@@ -1881,7 +1948,7 @@
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1896,16 +1963,16 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2054,13 +2121,13 @@
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
@@ -2233,10 +2300,10 @@
         <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
         <v>46</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.793</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2331,28 +2398,28 @@
         <v>10.6</v>
       </c>
       <c r="M11" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="N11" t="n">
         <v>0.389</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
         <v>21.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R11" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S11" t="n">
         <v>34.5</v>
       </c>
       <c r="T11" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
         <v>27.1</v>
@@ -2373,16 +2440,16 @@
         <v>19.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2391,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
         <v>22</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>25</v>
@@ -2424,13 +2491,13 @@
         <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2451,7 +2518,7 @@
         <v>14</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -2513,58 +2580,58 @@
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S12" t="n">
         <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>21.8</v>
       </c>
       <c r="V12" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
@@ -2597,10 +2664,10 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,34 +2679,34 @@
         <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-0.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2770,13 +2837,13 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>22</v>
@@ -2785,22 +2852,22 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.656</v>
+        <v>0.65</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,7 +2935,7 @@
         <v>39.3</v>
       </c>
       <c r="J14" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
@@ -2877,22 +2944,22 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N14" t="n">
         <v>0.368</v>
       </c>
       <c r="O14" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P14" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.721</v>
+        <v>0.724</v>
       </c>
       <c r="R14" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S14" t="n">
         <v>32.7</v>
@@ -2910,13 +2977,13 @@
         <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
         <v>21.6</v>
@@ -2928,10 +2995,10 @@
         <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2955,13 +3022,13 @@
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2976,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>0.281</v>
+        <v>0.276</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P15" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
@@ -3092,25 +3159,25 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
@@ -3140,22 +3207,22 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT15" t="n">
         <v>12</v>
@@ -3173,16 +3240,16 @@
         <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB15" t="n">
         <v>17</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>16</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -3325,13 +3392,13 @@
         <v>21</v>
       </c>
       <c r="AO16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>4</v>
       </c>
       <c r="AR16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
         <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.441</v>
+        <v>0.431</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="J17" t="n">
-        <v>76.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L17" t="n">
         <v>7.1</v>
       </c>
       <c r="M17" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.744</v>
@@ -3441,10 +3508,10 @@
         <v>8.9</v>
       </c>
       <c r="S17" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T17" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="U17" t="n">
         <v>20.2</v>
@@ -3453,7 +3520,7 @@
         <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X17" t="n">
         <v>4.3</v>
@@ -3462,19 +3529,19 @@
         <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>94</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.8</v>
+        <v>-3.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,22 +3562,22 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
         <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3540,16 +3607,16 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3671,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3680,7 +3747,7 @@
         <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3695,10 +3762,10 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3713,10 +3780,10 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,7 +3845,7 @@
         <v>36.6</v>
       </c>
       <c r="J19" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K19" t="n">
         <v>0.434</v>
@@ -3790,55 +3857,55 @@
         <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O19" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P19" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R19" t="n">
         <v>12.3</v>
       </c>
       <c r="S19" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
         <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
         <v>19.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC19" t="n">
         <v>-7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3877,22 +3944,22 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV19" t="n">
         <v>24</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>8</v>
@@ -3907,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -3945,112 +4012,112 @@
         <v>59</v>
       </c>
       <c r="E20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.525</v>
+        <v>0.542</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.359</v>
+        <v>0.355</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4062,16 +4129,16 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU20" t="n">
         <v>15</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>16</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4089,10 +4156,10 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4275,7 @@
         <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
         <v>30</v>
@@ -4220,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>26</v>
@@ -4241,22 +4308,22 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW21" t="n">
         <v>22</v>
@@ -4271,7 +4338,7 @@
         <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4444,10 +4511,10 @@
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
-        <v>0.317</v>
+        <v>0.311</v>
       </c>
       <c r="H23" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
         <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.352</v>
@@ -4530,19 +4597,19 @@
         <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4551,7 +4618,7 @@
         <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.2</v>
@@ -4560,13 +4627,13 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4587,10 +4654,10 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4611,13 +4678,13 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4629,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>22</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
-        <v>0.217</v>
+        <v>0.22</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="J24" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.412</v>
+        <v>0.41</v>
       </c>
       <c r="L24" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M24" t="n">
         <v>24.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="O24" t="n">
         <v>16.4</v>
       </c>
       <c r="P24" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q24" t="n">
         <v>0.68</v>
@@ -4715,13 +4782,13 @@
         <v>11.4</v>
       </c>
       <c r="S24" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T24" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U24" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V24" t="n">
         <v>18.6</v>
@@ -4733,34 +4800,34 @@
         <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.6</v>
+        <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4796,28 +4863,28 @@
         <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
         <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" t="n">
         <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.508</v>
+        <v>0.517</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="J25" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L25" t="n">
         <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.355</v>
+        <v>0.358</v>
       </c>
       <c r="O25" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P25" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.773</v>
+        <v>0.776</v>
       </c>
       <c r="R25" t="n">
         <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T25" t="n">
         <v>43.1</v>
       </c>
       <c r="U25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V25" t="n">
         <v>15.1</v>
@@ -4918,22 +4985,22 @@
         <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4942,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4957,34 +5024,34 @@
         <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
@@ -4999,13 +5066,13 @@
         <v>28</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5182,7 @@
         <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
         <v>6</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
         <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.603</v>
+        <v>0.61</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,43 +5483,43 @@
         <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.357</v>
+        <v>0.36</v>
       </c>
       <c r="O28" t="n">
         <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5476,7 +5543,7 @@
         <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5485,10 +5552,10 @@
         <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
@@ -5497,7 +5564,7 @@
         <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,31 +5573,31 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5539,19 +5606,19 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="n">
         <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>0.633</v>
+        <v>0.627</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J29" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O29" t="n">
         <v>19.7</v>
@@ -5619,7 +5686,7 @@
         <v>25.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
         <v>11</v>
@@ -5628,10 +5695,10 @@
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U29" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V29" t="n">
         <v>13.2</v>
@@ -5646,31 +5713,31 @@
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA29" t="n">
         <v>21</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.5</v>
+        <v>104.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG29" t="n">
         <v>8</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5679,7 +5746,7 @@
         <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5688,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5706,10 +5773,10 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -5870,10 +5937,10 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5882,7 +5949,7 @@
         <v>24</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>24</v>
@@ -5912,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6088,7 +6155,7 @@
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
         <v>19</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-2-2014-15</t>
+          <t>2015-03-02</t>
         </is>
       </c>
     </row>
